--- a/SVM for Unicorn Data/svm_validation_f.xlsx
+++ b/SVM for Unicorn Data/svm_validation_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6611570247933883</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.765625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.71875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7050359712230216</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6846153846153846</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6846153846153846</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6846153846153846</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6846153846153846</v>
+        <v>0.676923076923077</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.685842803030303</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6903030303030303</v>
+        <v>0.6775568181818181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.683096498008205</v>
+        <v>0.6766169154228856</v>
       </c>
       <c r="E5" t="n">
         <v>130</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6981169871794872</v>
+        <v>0.6789010989010988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6846153846153846</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6864718015797153</v>
+        <v>0.6764638346727899</v>
       </c>
       <c r="E6" t="n">
         <v>130</v>
